--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbfaab4b1378266a/Documente/UiPath/TuristBoT/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbfaab4b1378266a/Documente/SmartStayFinderProject/uipath-smart-stay-finder-bot/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F3B8C250-1DF8-4FA6-ABCE-648710F43715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A87BED4-1A0D-41B4-81EC-97B695856EAD}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{F3B8C250-1DF8-4FA6-ABCE-648710F43715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7097966F-0D8B-46BF-B6B8-00681D1E5C3A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>processesToKill</t>
   </si>
   <si>
-    <t>msedge;excel</t>
-  </si>
-  <si>
     <t>Booking website</t>
   </si>
   <si>
@@ -234,10 +231,16 @@
     <t>The answer for your vacation!</t>
   </si>
   <si>
-    <t>Hello! Here is the best option for you, great rating, small price: {0}</t>
-  </si>
-  <si>
     <t>dariapirvan18@outlook.com</t>
+  </si>
+  <si>
+    <t>mailFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! The based choice for you based on the rating and the cheapest price is: {0} for the {0} lei. </t>
+  </si>
+  <si>
+    <t>msedge;excel;chrome</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -313,7 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -684,42 +686,42 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
@@ -727,10 +729,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -740,23 +742,23 @@
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -765,20 +767,20 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>9.5</v>
@@ -786,62 +788,69 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1814,9 +1823,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{3AC0C8C0-2B88-438D-B6B6-18D49BA69162}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{1EE5C7B5-E762-4470-8E6C-253C4BCDC4DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1824,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2013,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbfaab4b1378266a/Documente/SmartStayFinderProject/uipath-smart-stay-finder-bot/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbfaab4b1378266a/Documente/UiPath/TuristBoT/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{F3B8C250-1DF8-4FA6-ABCE-648710F43715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7097966F-0D8B-46BF-B6B8-00681D1E5C3A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{F3B8C250-1DF8-4FA6-ABCE-648710F43715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E1BB03-20D0-4822-985D-B85A8E583C33}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -39,39 +39,6 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
     <t>LogMessage_BusinessRuleException</t>
   </si>
   <si>
@@ -84,61 +51,28 @@
     <t>System exception.</t>
   </si>
   <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
     <t>Static part of logging message. Processed Transaction failed with business exception.</t>
   </si>
   <si>
     <t>Static part of logging message. Processed Transaction failed with application exception.</t>
   </si>
   <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
     <t>ExceptionMessage_ConsecutiveErrors</t>
   </si>
   <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
     <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
   </si>
   <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
     <t>processesToKill</t>
   </si>
   <si>
-    <t>Booking website</t>
+    <t>msedge;excel</t>
   </si>
   <si>
     <t>bookingWebsiteAdress</t>
@@ -150,18 +84,12 @@
     <t>monthYearDate</t>
   </si>
   <si>
-    <t>Booking variables</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
     <t>endDate</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>isAffordableColumnName</t>
   </si>
   <si>
@@ -180,9 +108,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Output report</t>
-  </si>
-  <si>
     <t>Sheet1</t>
   </si>
   <si>
@@ -231,16 +156,10 @@
     <t>The answer for your vacation!</t>
   </si>
   <si>
+    <t>Hello! Here is the best option for you, great rating, small price: {0}</t>
+  </si>
+  <si>
     <t>dariapirvan18@outlook.com</t>
-  </si>
-  <si>
-    <t>mailFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! The based choice for you based on the rating and the cheapest price is: {0} for the {0} lei. </t>
-  </si>
-  <si>
-    <t>msedge;excel;chrome</t>
   </si>
 </sst>
 </file>
@@ -637,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -685,35 +604,31 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -721,7 +636,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
@@ -729,10 +644,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -741,24 +656,22 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -766,21 +679,19 @@
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>9.5</v>
@@ -788,69 +699,62 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1823,10 +1727,9 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{3AC0C8C0-2B88-438D-B6B6-18D49BA69162}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{1EE5C7B5-E762-4470-8E6C-253C4BCDC4DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1834,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1880,164 +1783,80 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:26" ht="14.4">
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="3" spans="1:26" ht="14.4">
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="3:3" ht="14.4">
+      <c r="C17" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="3:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="3:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3022,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbfaab4b1378266a/Documente/UiPath/TuristBoT/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbfaab4b1378266a/Documente/SmartStayFinderProject/uipath-smart-stay-finder-bot/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{F3B8C250-1DF8-4FA6-ABCE-648710F43715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E1BB03-20D0-4822-985D-B85A8E583C33}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1737,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
